--- a/RCKT.xlsx
+++ b/RCKT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180DB4C-8F2F-4232-ABB6-EAEEACEFE4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5382FF42-B2D2-422C-9C91-9303065A207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26715" yWindow="765" windowWidth="27015" windowHeight="19950" activeTab="1" xr2:uid="{8AEDBDDA-EEEF-4686-A046-8548F59C7393}"/>
+    <workbookView xWindow="38980" yWindow="1680" windowWidth="26400" windowHeight="18030" xr2:uid="{8AEDBDDA-EEEF-4686-A046-8548F59C7393}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Price</t>
   </si>
@@ -99,15 +99,9 @@
     <t>Plakophilin 2</t>
   </si>
   <si>
-    <t>REN-001</t>
-  </si>
-  <si>
     <t>BAG3-DCM</t>
   </si>
   <si>
-    <t>Q224</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -123,18 +117,12 @@
     <t>Clinical Trials</t>
   </si>
   <si>
-    <t>Phase II pivotal n=12</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
     <t>II</t>
   </si>
   <si>
-    <t>CRL</t>
-  </si>
-  <si>
     <t>RP-L201 (marnetegragene autotemcel)</t>
   </si>
   <si>
@@ -157,13 +145,55 @@
   </si>
   <si>
     <t>Spain Registry</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>8/20/25: clinical hold for RP-A501 lifted</t>
+  </si>
+  <si>
+    <t>post-clinical hold, n=3 3.8 x 10¹³ GC/kg of RP-A501 in three patients, 4-week interval between treatments</t>
+  </si>
+  <si>
+    <t>n=6 have been treated pre-clinical hold at 6.7</t>
+  </si>
+  <si>
+    <t>PE: LV reduction, LAMP2 expression</t>
+  </si>
+  <si>
+    <t>Phase II pivotal n=12 NCT06092034</t>
+  </si>
+  <si>
+    <t>RP-A701/REN-001</t>
+  </si>
+  <si>
+    <t>8/7/25: Q225 results</t>
+  </si>
+  <si>
+    <t>CEO: Gaurav Shah</t>
+  </si>
+  <si>
+    <t>patient death due to capillary leak syndrome, C3 inhibitor</t>
+  </si>
+  <si>
+    <t>in vivo AAVrh74</t>
+  </si>
+  <si>
+    <t>resubmit BLA YE25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -192,6 +222,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -319,6 +356,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -636,20 +675,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C2A8B5-2B14-4C78-81C0-DE56C393192F}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -657,10 +697,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -669,42 +709,45 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>17.149999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
-        <v>7</v>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
       </c>
       <c r="H3" s="5"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>90.956000000000003</v>
+        <v>107.903871</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H4" s="5"/>
       <c r="J4" t="s">
@@ -712,43 +755,42 @@
       </c>
       <c r="K4" s="2">
         <f>+K2*K3</f>
-        <v>1559.8953999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
+        <v>402.48143883</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="5"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2">
-        <f>38.607+240.218</f>
-        <v>278.82499999999999</v>
+        <f>32.819+238.675</f>
+        <v>271.49400000000003</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="H6" s="5"/>
       <c r="J6" t="s">
@@ -758,14 +800,14 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="5"/>
@@ -774,10 +816,10 @@
       </c>
       <c r="K7" s="2">
         <f>+K4-K5+K6</f>
-        <v>1281.0703999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>130.98743882999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -789,19 +831,28 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1701.6079999999999</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -809,40 +860,33 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K12" s="13">
-        <f>SUM(K13:K18)</f>
-        <v>91.406019999999984</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K13">
-        <f>17.687+12.945+9.155+5.808+4.327+3.928+3.479+3.139+2.919+2.864</f>
-        <v>66.250999999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K14">
-        <f>2.633+1.603+1.561+1.466+1.238+1.226+1.183+1.1+1.1+1.1</f>
-        <v>14.209999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K15">
-        <f>0.946+0.75+0.695+0.686+0.677+0.588+0.579+0.579+0.561+0.561+0.549+0.508+0.476</f>
-        <v>8.1549999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K16">
-        <f>0.4057+0.3869+0.352+0.35+0.2929+0.2613+0.25098+0.25037+0.23987</f>
-        <v>2.7900200000000002</v>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1348.3689999999999</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="'RP-A501'!A1" display="RP-A501" xr:uid="{A9880F01-96E5-4B71-93A7-B5B823A3749A}"/>
+    <hyperlink ref="B4" location="'RP-A501'!A1" display="RP-A501" xr:uid="{A9880F01-96E5-4B71-93A7-B5B823A3749A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -852,74 +896,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1692FD84-185B-4DB9-ABD0-405F96E1A1FF}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C7" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>39</v>
       </c>
       <c r="D17">
         <v>27</v>
@@ -932,7 +996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>1000</v>
       </c>
